--- a/contenedores/airflow/mantenedores/operacion_titulo.xlsx
+++ b/contenedores/airflow/mantenedores/operacion_titulo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fepip\OneDrive\Felipe\Projects\CMF\finReport\contenedores\airflow\mantenedores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2B715-97E2-4083-9680-95C7FECD27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{62C2B715-97E2-4083-9680-95C7FECD27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFBB30D-EF49-4662-8CFF-F4501004D955}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="principal" sheetId="1" r:id="rId1"/>
-    <sheet name="relacion" sheetId="2" r:id="rId2"/>
+    <sheet name="operacion_titulo" sheetId="1" r:id="rId1"/>
+    <sheet name="operacion_titulo_rel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
